--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2452,28 +2452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.3500489637262</v>
+        <v>230.4224699866296</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.0264052409062</v>
+        <v>315.2741889574891</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.7368676179956</v>
+        <v>285.1848628535831</v>
       </c>
       <c r="AD2" t="n">
-        <v>178350.0489637262</v>
+        <v>230422.4699866296</v>
       </c>
       <c r="AE2" t="n">
-        <v>244026.4052409062</v>
+        <v>315274.188957489</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.08045198527732e-06</v>
+        <v>3.517107305235354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>220736.8676179957</v>
+        <v>285184.8628535831</v>
       </c>
     </row>
     <row r="3">
@@ -2558,28 +2558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.7541765570179</v>
+        <v>187.6559158707781</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.7448534168136</v>
+        <v>256.7591028890013</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.0176253013042</v>
+        <v>232.254374473014</v>
       </c>
       <c r="AD3" t="n">
-        <v>135754.1765570179</v>
+        <v>187655.9158707781</v>
       </c>
       <c r="AE3" t="n">
-        <v>185744.8534168136</v>
+        <v>256759.1028890013</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.55540499821808e-06</v>
+        <v>4.320038938975904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.925347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>168017.6253013042</v>
+        <v>232254.374473014</v>
       </c>
     </row>
     <row r="4">
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.4667337072408</v>
+        <v>169.9540783249713</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.7738526104653</v>
+        <v>232.5386678088848</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.9982428175231</v>
+        <v>210.345503723342</v>
       </c>
       <c r="AD4" t="n">
-        <v>128466.7337072408</v>
+        <v>169954.0783249713</v>
       </c>
       <c r="AE4" t="n">
-        <v>175773.8526104653</v>
+        <v>232538.6678088848</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757775876053562e-06</v>
+        <v>4.662156948830956e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH4" t="n">
-        <v>158998.2428175231</v>
+        <v>210345.503723342</v>
       </c>
     </row>
     <row r="5">
@@ -2770,28 +2770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.0516243284715</v>
+        <v>156.2951664507646</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.1011492944431</v>
+        <v>213.8499419939412</v>
       </c>
       <c r="AC5" t="n">
-        <v>154.7714957478003</v>
+        <v>193.4404036703793</v>
       </c>
       <c r="AD5" t="n">
-        <v>125051.6243284715</v>
+        <v>156295.1664507646</v>
       </c>
       <c r="AE5" t="n">
-        <v>171101.1492944431</v>
+        <v>213849.9419939412</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.835573123553639e-06</v>
+        <v>4.79367705573371e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.144097222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>154771.4957478003</v>
+        <v>193440.4036703793</v>
       </c>
     </row>
     <row r="6">
@@ -2876,28 +2876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>111.6889011741106</v>
+        <v>153.2614971378617</v>
       </c>
       <c r="AB6" t="n">
-        <v>152.8176819529164</v>
+        <v>209.699141803985</v>
       </c>
       <c r="AC6" t="n">
-        <v>138.2329768683355</v>
+        <v>189.6857500248666</v>
       </c>
       <c r="AD6" t="n">
-        <v>111688.9011741106</v>
+        <v>153261.4971378617</v>
       </c>
       <c r="AE6" t="n">
-        <v>152817.6819529164</v>
+        <v>209699.1418039851</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.898571854727569e-06</v>
+        <v>4.900179536540952e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.987847222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>138232.9768683355</v>
+        <v>189685.7500248666</v>
       </c>
     </row>
     <row r="7">
@@ -2982,28 +2982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>110.8706198579065</v>
+        <v>152.4432158216576</v>
       </c>
       <c r="AB7" t="n">
-        <v>151.6980733560627</v>
+        <v>208.5795332071313</v>
       </c>
       <c r="AC7" t="n">
-        <v>137.2202221445846</v>
+        <v>188.6729953011157</v>
       </c>
       <c r="AD7" t="n">
-        <v>110870.6198579065</v>
+        <v>152443.2158216576</v>
       </c>
       <c r="AE7" t="n">
-        <v>151698.0733560627</v>
+        <v>208579.5332071313</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.914747520049366e-06</v>
+        <v>4.927525301342514e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>137220.2221445846</v>
+        <v>188672.9953011157</v>
       </c>
     </row>
   </sheetData>
@@ -3279,28 +3279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.8005382300109</v>
+        <v>198.1680365947393</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.2272169057637</v>
+        <v>271.1422502255534</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.9269351520166</v>
+        <v>245.2648144146443</v>
       </c>
       <c r="AD2" t="n">
-        <v>147800.5382300109</v>
+        <v>198168.0365947393</v>
       </c>
       <c r="AE2" t="n">
-        <v>202227.2169057637</v>
+        <v>271142.2502255534</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.39991704440962e-06</v>
+        <v>4.156154756213987e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.732638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>182926.9351520166</v>
+        <v>245264.8144146443</v>
       </c>
     </row>
     <row r="3">
@@ -3385,28 +3385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.3670904781807</v>
+        <v>162.5587696530285</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.4280516472021</v>
+        <v>222.4200802259451</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.4489533847859</v>
+        <v>201.192619937788</v>
       </c>
       <c r="AD3" t="n">
-        <v>122367.0904781807</v>
+        <v>162558.7696530285</v>
       </c>
       <c r="AE3" t="n">
-        <v>167428.0516472021</v>
+        <v>222420.0802259451</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.852035433981264e-06</v>
+        <v>4.939129317591898e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.352430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>151448.9533847859</v>
+        <v>201192.619937788</v>
       </c>
     </row>
     <row r="4">
@@ -3491,28 +3491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.3345999802202</v>
+        <v>147.6115305010886</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.8599349612276</v>
+        <v>201.9686081926198</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.8438288877811</v>
+        <v>182.6930076914954</v>
       </c>
       <c r="AD4" t="n">
-        <v>107334.5999802202</v>
+        <v>147611.5305010886</v>
       </c>
       <c r="AE4" t="n">
-        <v>146859.9349612276</v>
+        <v>201968.6081926198</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.996044944524166e-06</v>
+        <v>5.188523692942136e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.996527777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>132843.8288877811</v>
+        <v>182693.0076914954</v>
       </c>
     </row>
     <row r="5">
@@ -3597,28 +3597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.3407724689688</v>
+        <v>144.6177029898371</v>
       </c>
       <c r="AB5" t="n">
-        <v>142.7636480819871</v>
+        <v>197.8723213133794</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.1384858791193</v>
+        <v>178.9876646828337</v>
       </c>
       <c r="AD5" t="n">
-        <v>104340.7724689688</v>
+        <v>144617.7029898371</v>
       </c>
       <c r="AE5" t="n">
-        <v>142763.6480819871</v>
+        <v>197872.3213133794</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.072709967323245e-06</v>
+        <v>5.32129149001407e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>129138.4858791194</v>
+        <v>178987.6646828337</v>
       </c>
     </row>
     <row r="6">
@@ -3703,28 +3703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.3076396077395</v>
+        <v>144.5845701286079</v>
       </c>
       <c r="AB6" t="n">
-        <v>142.7183142395346</v>
+        <v>197.8269874709268</v>
       </c>
       <c r="AC6" t="n">
-        <v>129.097478634964</v>
+        <v>178.9466574386784</v>
       </c>
       <c r="AD6" t="n">
-        <v>104307.6396077395</v>
+        <v>144584.5701286079</v>
       </c>
       <c r="AE6" t="n">
-        <v>142718.3142395346</v>
+        <v>197826.9874709268</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.074448512722153e-06</v>
+        <v>5.324302287301999e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.814236111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>129097.478634964</v>
+        <v>178946.6574386783</v>
       </c>
     </row>
   </sheetData>
@@ -4000,28 +4000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.5929580222145</v>
+        <v>125.9690796185039</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.5850377282937</v>
+        <v>172.3564520975355</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.8856937767185</v>
+        <v>155.9069942131945</v>
       </c>
       <c r="AD2" t="n">
-        <v>89592.9580222145</v>
+        <v>125969.0796185039</v>
       </c>
       <c r="AE2" t="n">
-        <v>122585.0377282937</v>
+        <v>172356.4520975355</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.413877533507342e-06</v>
+        <v>6.45979092474489e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.848958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>110885.6937767185</v>
+        <v>155906.9942131945</v>
       </c>
     </row>
     <row r="3">
@@ -4106,28 +4106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.99282703521492</v>
+        <v>124.3689486315043</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.395667919085</v>
+        <v>170.1670822883268</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.9052743493002</v>
+        <v>153.9265747857762</v>
       </c>
       <c r="AD3" t="n">
-        <v>87992.82703521491</v>
+        <v>124368.9486315043</v>
       </c>
       <c r="AE3" t="n">
-        <v>120395.667919085</v>
+        <v>170167.0822883268</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.507696318947881e-06</v>
+        <v>6.637316255636517e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>108905.2743493002</v>
+        <v>153926.5747857761</v>
       </c>
     </row>
   </sheetData>
@@ -4403,28 +4403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.985555974486</v>
+        <v>149.8014868897831</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.2235781382759</v>
+        <v>204.9650031376873</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.6001348914433</v>
+        <v>185.4034309084734</v>
       </c>
       <c r="AD2" t="n">
-        <v>111985.555974486</v>
+        <v>149801.4868897831</v>
       </c>
       <c r="AE2" t="n">
-        <v>153223.5781382759</v>
+        <v>204965.0031376873</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.996971481529314e-06</v>
+        <v>5.459831172724022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.465277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>138600.1348914433</v>
+        <v>185403.4309084734</v>
       </c>
     </row>
     <row r="3">
@@ -4509,28 +4509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.76150715433938</v>
+        <v>131.6626894156571</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.2886305542726</v>
+        <v>180.1467002063332</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.0449437084306</v>
+        <v>162.9537519761729</v>
       </c>
       <c r="AD3" t="n">
-        <v>93761.50715433939</v>
+        <v>131662.6894156571</v>
       </c>
       <c r="AE3" t="n">
-        <v>128288.6305542726</v>
+        <v>180146.7002063332</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.361888098861775e-06</v>
+        <v>6.124629998817651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.657986111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>116044.9437084306</v>
+        <v>162953.7519761729</v>
       </c>
     </row>
     <row r="4">
@@ -4615,28 +4615,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.98228570287687</v>
+        <v>131.8834679641946</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.5907095044435</v>
+        <v>180.4487791565041</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.3181926675678</v>
+        <v>163.2270009353101</v>
       </c>
       <c r="AD4" t="n">
-        <v>93982.28570287686</v>
+        <v>131883.4679641946</v>
       </c>
       <c r="AE4" t="n">
-        <v>128590.7095044435</v>
+        <v>180448.7791565041</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.35740300375576e-06</v>
+        <v>6.116459129584035e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>116318.1926675678</v>
+        <v>163227.0009353101</v>
       </c>
     </row>
   </sheetData>
@@ -4912,28 +4912,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.51690241747069</v>
+        <v>118.6421614311679</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.2715103932326</v>
+        <v>162.3314393928102</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.3655978224041</v>
+        <v>146.8387546508113</v>
       </c>
       <c r="AD2" t="n">
-        <v>83516.90241747069</v>
+        <v>118642.1614311679</v>
       </c>
       <c r="AE2" t="n">
-        <v>114271.5103932326</v>
+        <v>162331.4393928102</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.569077264703198e-06</v>
+        <v>6.994241480454431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.805555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>103365.5978224041</v>
+        <v>146838.7546508113</v>
       </c>
     </row>
   </sheetData>
@@ -5209,28 +5209,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.7026602094242</v>
+        <v>203.4958518049323</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.934516464352</v>
+        <v>278.4320020427542</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.9940994544894</v>
+        <v>251.8588425496446</v>
       </c>
       <c r="AD2" t="n">
-        <v>152702.6602094242</v>
+        <v>203495.8518049323</v>
       </c>
       <c r="AE2" t="n">
-        <v>208934.516464352</v>
+        <v>278432.0020427541</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.31066204243352e-06</v>
+        <v>3.975450620403607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.993055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>188994.0994544894</v>
+        <v>251858.8425496446</v>
       </c>
     </row>
     <row r="3">
@@ -5315,28 +5315,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.5278444203467</v>
+        <v>166.0600781798183</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.752734633494</v>
+        <v>227.2107250191271</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.3608946965982</v>
+        <v>205.5260523156224</v>
       </c>
       <c r="AD3" t="n">
-        <v>125527.8444203467</v>
+        <v>166060.0781798183</v>
       </c>
       <c r="AE3" t="n">
-        <v>171752.7346334941</v>
+        <v>227210.7250191271</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.779011350068164e-06</v>
+        <v>4.781236802635972e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.473958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>155360.8946965982</v>
+        <v>205526.0523156224</v>
       </c>
     </row>
     <row r="4">
@@ -5421,28 +5421,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.1405050799404</v>
+        <v>150.6677140585393</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.3815392753163</v>
+        <v>206.1502133652245</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.6931958778649</v>
+        <v>186.4755263353479</v>
       </c>
       <c r="AD4" t="n">
-        <v>120140.5050799404</v>
+        <v>150667.7140585393</v>
       </c>
       <c r="AE4" t="n">
-        <v>164381.5392753163</v>
+        <v>206150.2133652245</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.941349471005903e-06</v>
+        <v>5.060536488936012e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.065972222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>148693.1958778649</v>
+        <v>186475.5263353479</v>
       </c>
     </row>
     <row r="5">
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.6377574238263</v>
+        <v>147.2552425293186</v>
       </c>
       <c r="AB5" t="n">
-        <v>145.906484233046</v>
+        <v>201.4811192713282</v>
       </c>
       <c r="AC5" t="n">
-        <v>131.9813741589204</v>
+        <v>182.2520440286569</v>
       </c>
       <c r="AD5" t="n">
-        <v>106637.7574238263</v>
+        <v>147255.2425293186</v>
       </c>
       <c r="AE5" t="n">
-        <v>145906.484233046</v>
+        <v>201481.1192713282</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.020029857450963e-06</v>
+        <v>5.195904615196998e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH5" t="n">
-        <v>131981.3741589204</v>
+        <v>182252.0440286568</v>
       </c>
     </row>
     <row r="6">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.8057038605597</v>
+        <v>146.4231889660519</v>
       </c>
       <c r="AB6" t="n">
-        <v>144.7680318401726</v>
+        <v>200.3426668784548</v>
       </c>
       <c r="AC6" t="n">
-        <v>130.9515740645945</v>
+        <v>181.2222439343309</v>
       </c>
       <c r="AD6" t="n">
-        <v>105805.7038605597</v>
+        <v>146423.1889660519</v>
       </c>
       <c r="AE6" t="n">
-        <v>144768.0318401726</v>
+        <v>200342.6668784549</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.04242792366525e-06</v>
+        <v>5.2344400671983e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>130951.5740645945</v>
+        <v>181222.2439343309</v>
       </c>
     </row>
   </sheetData>
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.99747987102752</v>
+        <v>115.3820409481406</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.8243253161125</v>
+        <v>157.8707987215695</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.2474072508886</v>
+        <v>142.8038312646839</v>
       </c>
       <c r="AD2" t="n">
-        <v>80997.47987102752</v>
+        <v>115382.0409481406</v>
       </c>
       <c r="AE2" t="n">
-        <v>110824.3253161125</v>
+        <v>157870.7987215695</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.587692647998437e-06</v>
+        <v>7.192105294883594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>100247.4072508886</v>
+        <v>142803.8312646839</v>
       </c>
     </row>
   </sheetData>
@@ -6227,28 +6227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.8974997792677</v>
+        <v>174.0692554105063</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.5727104555842</v>
+        <v>238.1692346461109</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.9573500191812</v>
+        <v>215.4386971641752</v>
       </c>
       <c r="AD2" t="n">
-        <v>134897.4997792677</v>
+        <v>174069.2554105063</v>
       </c>
       <c r="AE2" t="n">
-        <v>184572.7104555842</v>
+        <v>238169.2346461109</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.662529715165973e-06</v>
+        <v>4.715537969887888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.107638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>166957.3500191812</v>
+        <v>215438.6971641752</v>
       </c>
     </row>
     <row r="3">
@@ -6333,28 +6333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.1745571606236</v>
+        <v>142.6174019021191</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.8504220161789</v>
+        <v>195.1354211181092</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.0717150729295</v>
+        <v>176.5119704009357</v>
       </c>
       <c r="AD3" t="n">
-        <v>113174.5571606236</v>
+        <v>142617.4019021191</v>
       </c>
       <c r="AE3" t="n">
-        <v>154850.4220161789</v>
+        <v>195135.4211181092</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.08302341969154e-06</v>
+        <v>5.460263566186267e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.005208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>140071.7150729295</v>
+        <v>176511.9704009357</v>
       </c>
     </row>
     <row r="4">
@@ -6439,28 +6439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.31166018941325</v>
+        <v>138.4833263121009</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.8825947923277</v>
+        <v>189.4789965133059</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.9141506578039</v>
+        <v>171.3953870215713</v>
       </c>
       <c r="AD4" t="n">
-        <v>99311.66018941325</v>
+        <v>138483.3263121009</v>
       </c>
       <c r="AE4" t="n">
-        <v>135882.5947923277</v>
+        <v>189478.9965133059</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.207813173679249e-06</v>
+        <v>5.681275493238253e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.736111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>122914.1506578039</v>
+        <v>171395.3870215713</v>
       </c>
     </row>
     <row r="5">
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.43183660861247</v>
+        <v>138.6035027313001</v>
       </c>
       <c r="AB5" t="n">
-        <v>136.0470254708854</v>
+        <v>189.6434271918637</v>
       </c>
       <c r="AC5" t="n">
-        <v>123.06288830318</v>
+        <v>171.5441246669474</v>
       </c>
       <c r="AD5" t="n">
-        <v>99431.83660861247</v>
+        <v>138603.5027313001</v>
       </c>
       <c r="AE5" t="n">
-        <v>136047.0254708854</v>
+        <v>189643.4271918637</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.207589268618266e-06</v>
+        <v>5.680878940737562e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.736111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>123062.88830318</v>
+        <v>171544.1246669474</v>
       </c>
     </row>
   </sheetData>
@@ -6842,28 +6842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.5902276140462</v>
+        <v>183.6843352439198</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.4664841752084</v>
+        <v>251.3250110615652</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.7159986680246</v>
+        <v>227.3389047427909</v>
       </c>
       <c r="AD2" t="n">
-        <v>143590.2276140462</v>
+        <v>183684.3352439198</v>
       </c>
       <c r="AE2" t="n">
-        <v>196466.4841752085</v>
+        <v>251325.0110615652</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.478679308477211e-06</v>
+        <v>4.322600277679181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.532986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>177715.9986680245</v>
+        <v>227338.9047427909</v>
       </c>
     </row>
     <row r="3">
@@ -6948,28 +6948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.4870372143539</v>
+        <v>149.4937018043815</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.4874357126536</v>
+        <v>204.5438780053213</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.8844243043402</v>
+        <v>185.0224973676874</v>
       </c>
       <c r="AD3" t="n">
-        <v>119487.0372143539</v>
+        <v>149493.7018043814</v>
       </c>
       <c r="AE3" t="n">
-        <v>163487.4357126536</v>
+        <v>204543.8780053213</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.922075416311136e-06</v>
+        <v>5.095844372746195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>147884.4243043402</v>
+        <v>185022.4973676874</v>
       </c>
     </row>
     <row r="4">
@@ -7054,28 +7054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.2806064270816</v>
+        <v>144.204032347812</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.6813262491388</v>
+        <v>197.3063188911002</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.0640207264586</v>
+        <v>178.4756807373473</v>
       </c>
       <c r="AD4" t="n">
-        <v>104280.6064270816</v>
+        <v>144204.032347812</v>
       </c>
       <c r="AE4" t="n">
-        <v>142681.3262491388</v>
+        <v>197306.3188911002</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.075716189685365e-06</v>
+        <v>5.363780465720762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.883680555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>129064.0207264586</v>
+        <v>178475.6807373473</v>
       </c>
     </row>
     <row r="5">
@@ -7160,28 +7160,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.438777601868</v>
+        <v>142.3622035225984</v>
       </c>
       <c r="AB5" t="n">
-        <v>140.1612547947298</v>
+        <v>194.7862474366912</v>
       </c>
       <c r="AC5" t="n">
-        <v>126.7844613547151</v>
+        <v>176.1961213656038</v>
       </c>
       <c r="AD5" t="n">
-        <v>102438.777601868</v>
+        <v>142362.2035225984</v>
       </c>
       <c r="AE5" t="n">
-        <v>140161.2547947298</v>
+        <v>194786.2474366912</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.130001133728583e-06</v>
+        <v>5.458448668014013e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.762152777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>126784.4613547151</v>
+        <v>176196.1213656038</v>
       </c>
     </row>
   </sheetData>
@@ -7457,28 +7457,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.4807175203044</v>
+        <v>225.1678441395505</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.3639711402778</v>
+        <v>308.0845780557875</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.7102868771441</v>
+        <v>278.6814183256553</v>
       </c>
       <c r="AD2" t="n">
-        <v>173480.7175203044</v>
+        <v>225167.8441395505</v>
       </c>
       <c r="AE2" t="n">
-        <v>237363.9711402777</v>
+        <v>308084.5780557875</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.147645082674892e-06</v>
+        <v>3.650854302408367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.513888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>214710.2868771441</v>
+        <v>278681.4183256553</v>
       </c>
     </row>
     <row r="3">
@@ -7563,28 +7563,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.361243069873</v>
+        <v>173.7109443652699</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.1024921340431</v>
+        <v>237.6789776664509</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.8183244637649</v>
+        <v>214.9952296225739</v>
       </c>
       <c r="AD3" t="n">
-        <v>132361.243069873</v>
+        <v>173710.9443652699</v>
       </c>
       <c r="AE3" t="n">
-        <v>181102.4921340431</v>
+        <v>237678.9776664509</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.621995132103119e-06</v>
+        <v>4.457217948232809e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.786458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>163818.3244637649</v>
+        <v>214995.2296225739</v>
       </c>
     </row>
     <row r="4">
@@ -7669,28 +7669,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.2656371814504</v>
+        <v>167.444746276255</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.762215238355</v>
+        <v>229.105288995916</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.2740318893465</v>
+        <v>207.2398017655044</v>
       </c>
       <c r="AD4" t="n">
-        <v>126265.6371814504</v>
+        <v>167444.7462762551</v>
       </c>
       <c r="AE4" t="n">
-        <v>172762.215238355</v>
+        <v>229105.288995916</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.800785173549728e-06</v>
+        <v>4.761149169135539e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>156274.0318893465</v>
+        <v>207239.8017655044</v>
       </c>
     </row>
     <row r="5">
@@ -7775,28 +7775,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.2682908605826</v>
+        <v>153.2806563406812</v>
       </c>
       <c r="AB5" t="n">
-        <v>167.2928696516729</v>
+        <v>209.7253562705272</v>
       </c>
       <c r="AC5" t="n">
-        <v>151.3266729691808</v>
+        <v>189.7094626195141</v>
       </c>
       <c r="AD5" t="n">
-        <v>122268.2908605826</v>
+        <v>153280.6563406812</v>
       </c>
       <c r="AE5" t="n">
-        <v>167292.8696516729</v>
+        <v>209725.3562705271</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.901908952749298e-06</v>
+        <v>4.933052891656914e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.039930555555554</v>
       </c>
       <c r="AH5" t="n">
-        <v>151326.6729691808</v>
+        <v>189709.4626195141</v>
       </c>
     </row>
     <row r="6">
@@ -7881,28 +7881,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>108.956854706643</v>
+        <v>150.2212151474683</v>
       </c>
       <c r="AB6" t="n">
-        <v>149.0795754467455</v>
+        <v>205.5392938569557</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.8516300006469</v>
+        <v>185.9229121275171</v>
       </c>
       <c r="AD6" t="n">
-        <v>108956.854706643</v>
+        <v>150221.2151474683</v>
       </c>
       <c r="AE6" t="n">
-        <v>149079.5754467455</v>
+        <v>205539.2938569557</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.963552578040799e-06</v>
+        <v>5.037842969136209e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>134851.6300006469</v>
+        <v>185922.9121275171</v>
       </c>
     </row>
     <row r="7">
@@ -7987,28 +7987,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>109.1255170304552</v>
+        <v>150.3898774712805</v>
       </c>
       <c r="AB7" t="n">
-        <v>149.3103466790419</v>
+        <v>205.7700650892521</v>
       </c>
       <c r="AC7" t="n">
-        <v>135.0603767504225</v>
+        <v>186.1316588772926</v>
       </c>
       <c r="AD7" t="n">
-        <v>109125.5170304552</v>
+        <v>150389.8774712805</v>
       </c>
       <c r="AE7" t="n">
-        <v>149310.3466790419</v>
+        <v>205770.0650892521</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.961693858041551e-06</v>
+        <v>5.034683268326719e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>135060.3767504225</v>
+        <v>186131.6588772926</v>
       </c>
     </row>
   </sheetData>
@@ -8284,28 +8284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.0217149343634</v>
+        <v>154.4543003789788</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.7460288899437</v>
+        <v>211.3311878212457</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.595530694182</v>
+        <v>191.1620358608314</v>
       </c>
       <c r="AD2" t="n">
-        <v>116021.7149343634</v>
+        <v>154454.3003789788</v>
       </c>
       <c r="AE2" t="n">
-        <v>158746.0288899437</v>
+        <v>211331.1878212458</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.888192519801499e-06</v>
+        <v>5.208094574913823e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.647569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>143595.530694182</v>
+        <v>191162.0358608314</v>
       </c>
     </row>
     <row r="3">
@@ -8390,28 +8390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.87783437064066</v>
+        <v>135.2250789606845</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.5525269342675</v>
+        <v>185.020918743372</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.9018998023364</v>
+        <v>167.362781937047</v>
       </c>
       <c r="AD3" t="n">
-        <v>96877.83437064066</v>
+        <v>135225.0789606845</v>
       </c>
       <c r="AE3" t="n">
-        <v>132552.5269342675</v>
+        <v>185020.918743372</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.267148791479899e-06</v>
+        <v>5.891442408940306e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.762152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>119901.8998023364</v>
+        <v>167362.781937047</v>
       </c>
     </row>
     <row r="4">
@@ -8496,28 +8496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.88490813083668</v>
+        <v>134.2321527208805</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.1939614481543</v>
+        <v>183.6623532572588</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.6729938994587</v>
+        <v>166.1338760341693</v>
       </c>
       <c r="AD4" t="n">
-        <v>95884.90813083667</v>
+        <v>134232.1527208805</v>
       </c>
       <c r="AE4" t="n">
-        <v>131193.9614481543</v>
+        <v>183662.3532572588</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.300213286167584e-06</v>
+        <v>5.951065517242322e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>118672.9938994587</v>
+        <v>166133.8760341693</v>
       </c>
     </row>
   </sheetData>
@@ -8793,28 +8793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.9797688992516</v>
+        <v>130.7350199062311</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.9014629546613</v>
+        <v>178.8774218576467</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.4540250867516</v>
+        <v>161.8056117716414</v>
       </c>
       <c r="AD2" t="n">
-        <v>102979.7688992516</v>
+        <v>130735.0199062311</v>
       </c>
       <c r="AE2" t="n">
-        <v>140901.4629546613</v>
+        <v>178877.4218576467</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.280921933492243e-06</v>
+        <v>6.121151605026901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.013888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>127454.0250867516</v>
+        <v>161805.6117716414</v>
       </c>
     </row>
     <row r="3">
@@ -8899,28 +8899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.07530112105692</v>
+        <v>126.9968422643898</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.2450008356053</v>
+        <v>173.7626822913238</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.4826709313325</v>
+        <v>157.1790157709445</v>
       </c>
       <c r="AD3" t="n">
-        <v>90075.30112105692</v>
+        <v>126996.8422643898</v>
       </c>
       <c r="AE3" t="n">
-        <v>123245.0008356053</v>
+        <v>173762.6822913238</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.452284686792769e-06</v>
+        <v>6.440859727826046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>111482.6709313325</v>
+        <v>157179.0157709445</v>
       </c>
     </row>
   </sheetData>
@@ -15473,28 +15473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.71033892535988</v>
+        <v>121.4922886567586</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.2726669909143</v>
+        <v>166.2311092016004</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.0803282465537</v>
+        <v>150.3662454462728</v>
       </c>
       <c r="AD2" t="n">
-        <v>85710.33892535987</v>
+        <v>121492.2886567586</v>
       </c>
       <c r="AE2" t="n">
-        <v>117272.6669909143</v>
+        <v>166231.1092016004</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.542265640708913e-06</v>
+        <v>6.811908187072829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>106080.3282465537</v>
+        <v>150366.2454462727</v>
       </c>
     </row>
     <row r="3">
@@ -15579,28 +15579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.01343754252593</v>
+        <v>121.7953872739246</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.687379890688</v>
+        <v>166.6458221013741</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.4554615292263</v>
+        <v>150.7413787289454</v>
       </c>
       <c r="AD3" t="n">
-        <v>86013.43754252593</v>
+        <v>121795.3872739246</v>
       </c>
       <c r="AE3" t="n">
-        <v>117687.379890688</v>
+        <v>166645.8221013741</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.534668096941482e-06</v>
+        <v>6.797297828663725e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.736111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>106455.4615292263</v>
+        <v>150741.3787289454</v>
       </c>
     </row>
   </sheetData>
@@ -15876,28 +15876,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.60111063155924</v>
+        <v>111.8074003904178</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.4914601374098</v>
+        <v>152.9798178084844</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.182801485735</v>
+        <v>138.3796387054072</v>
       </c>
       <c r="AD2" t="n">
-        <v>86601.11063155923</v>
+        <v>111807.4003904178</v>
       </c>
       <c r="AE2" t="n">
-        <v>118491.4601374098</v>
+        <v>152979.8178084844</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.556826126445042e-06</v>
+        <v>7.336307154610816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>107182.801485735</v>
+        <v>138379.6387054072</v>
       </c>
     </row>
   </sheetData>
@@ -16173,28 +16173,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.6627139387878</v>
+        <v>178.2183664735162</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.7244425781623</v>
+        <v>243.8462314483794</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.6174080584835</v>
+        <v>220.5738893593521</v>
       </c>
       <c r="AD2" t="n">
-        <v>138662.7139387878</v>
+        <v>178218.3664735162</v>
       </c>
       <c r="AE2" t="n">
-        <v>189724.4425781623</v>
+        <v>243846.2314483794</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.581761817187578e-06</v>
+        <v>4.536053668037428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>171617.4080584835</v>
+        <v>220573.8893593521</v>
       </c>
     </row>
     <row r="3">
@@ -16279,28 +16279,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.3764884573874</v>
+        <v>146.1072558765002</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.2314456756481</v>
+        <v>199.9103932873463</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.0346199831457</v>
+        <v>180.8312259280578</v>
       </c>
       <c r="AD3" t="n">
-        <v>116376.4884573874</v>
+        <v>146107.2558765002</v>
       </c>
       <c r="AE3" t="n">
-        <v>159231.4456756481</v>
+        <v>199910.3932873463</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.996865433158129e-06</v>
+        <v>5.26537434638334e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>144034.6199831457</v>
+        <v>180831.2259280578</v>
       </c>
     </row>
     <row r="4">
@@ -16385,28 +16385,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.5682611082496</v>
+        <v>141.123824134427</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.9701757236845</v>
+        <v>193.0918421243532</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.70705719852</v>
+        <v>174.663427718162</v>
       </c>
       <c r="AD4" t="n">
-        <v>101568.2611082496</v>
+        <v>141123.824134427</v>
       </c>
       <c r="AE4" t="n">
-        <v>138970.1757236845</v>
+        <v>193091.8421243532</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.149356495213854e-06</v>
+        <v>5.533295126982033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.788194444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>125707.05719852</v>
+        <v>174663.427718162</v>
       </c>
     </row>
     <row r="5">
@@ -16491,28 +16491,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.0247608665758</v>
+        <v>140.5803238927532</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.2265347154882</v>
+        <v>192.348201116157</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.0343882444391</v>
+        <v>173.9907587640811</v>
       </c>
       <c r="AD5" t="n">
-        <v>101024.7608665758</v>
+        <v>140580.3238927532</v>
       </c>
       <c r="AE5" t="n">
-        <v>138226.5347154882</v>
+        <v>192348.201116157</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.163734083241066e-06</v>
+        <v>5.558555981981975e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.753472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>125034.3882444391</v>
+        <v>173990.7587640811</v>
       </c>
     </row>
   </sheetData>
@@ -16788,28 +16788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.9369979181316</v>
+        <v>208.9687145163443</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.7788094089408</v>
+        <v>285.9202142501667</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.8490423356023</v>
+        <v>258.632390293756</v>
       </c>
       <c r="AD2" t="n">
-        <v>167936.9979181316</v>
+        <v>208968.7145163443</v>
       </c>
       <c r="AE2" t="n">
-        <v>229778.8094089408</v>
+        <v>285920.2142501667</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.231721934839954e-06</v>
+        <v>3.815995800137764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.227430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>207849.0423356023</v>
+        <v>258632.390293756</v>
       </c>
     </row>
     <row r="3">
@@ -16894,28 +16894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.0786525735024</v>
+        <v>170.1102796631641</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.6111069992392</v>
+        <v>232.7523893709167</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.7555908225266</v>
+        <v>210.5388279994538</v>
       </c>
       <c r="AD3" t="n">
-        <v>129078.6525735024</v>
+        <v>170110.2796631641</v>
       </c>
       <c r="AE3" t="n">
-        <v>176611.1069992392</v>
+        <v>232752.3893709167</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.693505773234993e-06</v>
+        <v>4.605594701496116e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.647569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>159755.5908225266</v>
+        <v>210538.8279994538</v>
       </c>
     </row>
     <row r="4">
@@ -17000,28 +17000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.1513923474691</v>
+        <v>153.9252021732665</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.5011680657185</v>
+        <v>210.607252314025</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.4196530784477</v>
+        <v>190.5071917423697</v>
       </c>
       <c r="AD4" t="n">
-        <v>123151.3923474691</v>
+        <v>153925.2021732664</v>
       </c>
       <c r="AE4" t="n">
-        <v>168501.1680657185</v>
+        <v>210607.252314025</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.87174271019168e-06</v>
+        <v>4.910360000540826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.170138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>152419.6530784477</v>
+        <v>190507.1917423697</v>
       </c>
     </row>
     <row r="5">
@@ -17106,28 +17106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.6694155953216</v>
+        <v>149.6157018304117</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.6862885737172</v>
+        <v>204.7108038231971</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.4958778747988</v>
+        <v>185.1734920197871</v>
       </c>
       <c r="AD5" t="n">
-        <v>108669.4155953216</v>
+        <v>149615.7018304117</v>
       </c>
       <c r="AE5" t="n">
-        <v>148686.2885737172</v>
+        <v>204710.8038231971</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.97975718829148e-06</v>
+        <v>5.095052720699294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.909722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>134495.8778747988</v>
+        <v>185173.4920197871</v>
       </c>
     </row>
     <row r="6">
@@ -17212,28 +17212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>107.5231480290757</v>
+        <v>148.4694342641658</v>
       </c>
       <c r="AB6" t="n">
-        <v>147.1179147198244</v>
+        <v>203.1424299693043</v>
       </c>
       <c r="AC6" t="n">
-        <v>133.0771874202944</v>
+        <v>183.7548015652828</v>
       </c>
       <c r="AD6" t="n">
-        <v>107523.1480290757</v>
+        <v>148469.4342641658</v>
       </c>
       <c r="AE6" t="n">
-        <v>147117.9147198244</v>
+        <v>203142.4299693043</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.989863528653992e-06</v>
+        <v>5.112333436444409e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.883680555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>133077.1874202944</v>
+        <v>183754.8015652828</v>
       </c>
     </row>
     <row r="7">
@@ -17318,28 +17318,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>107.6890654452633</v>
+        <v>148.6353516803534</v>
       </c>
       <c r="AB7" t="n">
-        <v>147.3449302484119</v>
+        <v>203.3694454978918</v>
       </c>
       <c r="AC7" t="n">
-        <v>133.2825369054519</v>
+        <v>183.9601510504403</v>
       </c>
       <c r="AD7" t="n">
-        <v>107689.0654452633</v>
+        <v>148635.3516803534</v>
       </c>
       <c r="AE7" t="n">
-        <v>147344.9302484119</v>
+        <v>203369.4454978918</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.988938300310946e-06</v>
+        <v>5.110751399087463e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>133282.5369054519</v>
+        <v>183960.1510504403</v>
       </c>
     </row>
   </sheetData>
@@ -17615,28 +17615,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.94749426198609</v>
+        <v>115.4992081289747</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.4924210343841</v>
+        <v>158.0311120274379</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.660863658505</v>
+        <v>142.9488444936413</v>
       </c>
       <c r="AD2" t="n">
-        <v>82947.4942619861</v>
+        <v>115499.2081289747</v>
       </c>
       <c r="AE2" t="n">
-        <v>113492.4210343841</v>
+        <v>158031.1120274379</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.383629503079526e-06</v>
+        <v>7.252676492573521e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.821180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>102660.863658505</v>
+        <v>142948.8444936413</v>
       </c>
     </row>
   </sheetData>
@@ -17912,28 +17912,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.6400370048805</v>
+        <v>135.7748584386693</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.277847373298</v>
+        <v>185.7731512797093</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.2218563257874</v>
+        <v>168.0432224558814</v>
       </c>
       <c r="AD2" t="n">
-        <v>107640.0370048805</v>
+        <v>135774.8584386693</v>
       </c>
       <c r="AE2" t="n">
-        <v>147277.847373298</v>
+        <v>185773.1512797092</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.125975160153154e-06</v>
+        <v>5.759398338993192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.256944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>133221.8563257874</v>
+        <v>168043.2224558814</v>
       </c>
     </row>
     <row r="3">
@@ -18018,28 +18018,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.10442404546683</v>
+        <v>129.5320590912123</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.021336339367</v>
+        <v>177.2314777996533</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.9940368712275</v>
+        <v>160.3167543044453</v>
       </c>
       <c r="AD3" t="n">
-        <v>92104.42404546683</v>
+        <v>129532.0590912123</v>
       </c>
       <c r="AE3" t="n">
-        <v>126021.336339367</v>
+        <v>177231.4777996533</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.397052736290005e-06</v>
+        <v>6.258840484804864e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.675347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>113994.0368712275</v>
+        <v>160316.7543044453</v>
       </c>
     </row>
   </sheetData>
@@ -18315,28 +18315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.3593585674697</v>
+        <v>159.2144155310787</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.6809842720881</v>
+        <v>217.8441873738048</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.9640622644186</v>
+        <v>197.0534438771486</v>
       </c>
       <c r="AD2" t="n">
-        <v>120359.3585674697</v>
+        <v>159214.4155310786</v>
       </c>
       <c r="AE2" t="n">
-        <v>164680.9842720881</v>
+        <v>217844.1873738048</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.775621271397911e-06</v>
+        <v>4.958444841284455e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.864583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>148964.0622644186</v>
+        <v>197053.4438771486</v>
       </c>
     </row>
     <row r="3">
@@ -18421,28 +18421,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.2441724000595</v>
+        <v>139.0138885090968</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.1584991384684</v>
+        <v>190.2049351179875</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.0682844838924</v>
+        <v>172.0520430646835</v>
       </c>
       <c r="AD3" t="n">
-        <v>100244.1724000595</v>
+        <v>139013.8885090968</v>
       </c>
       <c r="AE3" t="n">
-        <v>137158.4991384684</v>
+        <v>190204.9351179875</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.160376544703853e-06</v>
+        <v>5.645782058267233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.909722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>124068.2844838924</v>
+        <v>172052.0430646835</v>
       </c>
     </row>
     <row r="4">
@@ -18527,28 +18527,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.50849590249986</v>
+        <v>136.2782120115372</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.41542586498</v>
+        <v>186.4618618444991</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.6824448701882</v>
+        <v>168.6662034509793</v>
       </c>
       <c r="AD4" t="n">
-        <v>97508.49590249985</v>
+        <v>136278.2120115372</v>
       </c>
       <c r="AE4" t="n">
-        <v>133415.42586498</v>
+        <v>186461.8618444991</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.253578132647529e-06</v>
+        <v>5.812279893436975e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.710069444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>120682.4448701882</v>
+        <v>168666.2034509793</v>
       </c>
     </row>
   </sheetData>
